--- a/spliced/falling/2023-03-25_18-03-39/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.0639881342649459</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0047342055477201</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0751364231109619</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0545197241008281</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-39/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-39/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0884227454662323</v>
+        <v>-0.0386372283101081</v>
       </c>
       <c r="B2" t="n">
-        <v>0.143247902393341</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0100792767480015</v>
+        <v>-0.0021380283869802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3347541689872741</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1197295859456062</v>
+        <v>-0.0390953756868839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.270766019821167</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8387179970741272</v>
+        <v>0.030695978552103</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0482583530247211</v>
+        <v>0.0099265603348612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.08216137439012521</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="B5" t="n">
-        <v>1.014799833297729</v>
+        <v>-0.0022907445672899</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6319400668144226</v>
+        <v>0.0502436682581901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0899499058723449</v>
+        <v>-0.030695978552103</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2608394622802734</v>
+        <v>-0.062460970133543</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.039387226104736</v>
+        <v>0.0204639863222837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.28557950258255</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1322523206472396</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.019686818122864</v>
+        <v>-0.0035124751739203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.732122004032135</v>
+        <v>-0.0884227454662323</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8946121335029602</v>
+        <v>0.143247902393341</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.311154365539551</v>
+        <v>0.0100792767480015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.028391599655151</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="B9" t="n">
-        <v>1.130253434181213</v>
+        <v>0.3347541689872741</v>
       </c>
       <c r="C9" t="n">
-        <v>3.014009237289429</v>
+        <v>-0.1197295859456062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.270766019821167</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.049120426177979</v>
+        <v>0.8387179970741272</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.136155128479004</v>
+        <v>-0.0482583530247211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1689042448997497</v>
+        <v>-0.08216137439012521</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.859904766082764</v>
+        <v>1.014799833297729</v>
       </c>
       <c r="C11" t="n">
-        <v>2.358856201171875</v>
+        <v>-0.6319400668144226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0294742472469806</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19288070499897</v>
+        <v>-0.2608394622802734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1658499091863632</v>
+        <v>-1.039387226104736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0536034256219863</v>
+        <v>0.28557950258255</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2634356319904327</v>
+        <v>0.1322523206472396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0305432621389627</v>
+        <v>-1.019686818122864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0258090570569038</v>
+        <v>-0.732122004032135</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06276640295982359</v>
+        <v>-0.8946121335029602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09498954564332961</v>
+        <v>-6.311154365539551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3324634134769439</v>
+        <v>1.028391599655151</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5954409241676331</v>
+        <v>1.130253434181213</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4030183553695678</v>
+        <v>3.014009237289429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3912591934204101</v>
+        <v>0.07590000331401819</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4184426963329315</v>
+        <v>-4.049120426177979</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00137444678694</v>
+        <v>-5.136155128479004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0673478916287422</v>
+        <v>-0.1689042448997497</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2486221492290496</v>
+        <v>-3.859904766082764</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2105957865715026</v>
+        <v>2.358856201171875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1072068512439727</v>
+        <v>0.0294742472469806</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0436768643558025</v>
+        <v>0.19288070499897</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0542142912745475</v>
+        <v>0.1658499091863632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0618501044809818</v>
+        <v>0.0536034256219863</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08750644326210021</v>
+        <v>0.2634356319904327</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0142026171088218</v>
+        <v>0.0258090570569038</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0065668015740811</v>
+        <v>0.06276640295982359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0097738439217209</v>
+        <v>0.09498954564332961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.3324634134769439</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5954409241676331</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4030183553695678</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.3912591934204101</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4184426963329315</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.00137444678694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0673478916287422</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2486221492290496</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2105957865715026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1072068512439727</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0436768643558025</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0542142912745475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0618501044809818</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.08750644326210021</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0809396430850029</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0142026171088218</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0065668015740811</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.007177666760981</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>-0.0444404482841491</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>0.0639881342649459</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0047342055477201</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0751364231109619</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0545197241008281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0003054326225537</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0100792767480015</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0152716310694813</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.047036625444889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0091629782691597</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0114537235349416</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0062613687478005</v>
       </c>
     </row>
   </sheetData>
